--- a/CASUAL/LA ONT/OCAMPO, MERLINDA.xlsx
+++ b/CASUAL/LA ONT/OCAMPO, MERLINDA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>UT(2-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-0)</t>
   </si>
 </sst>
 </file>
@@ -708,14 +711,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -725,9 +731,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,14 +1653,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1668,14 +1671,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1688,14 +1691,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1721,18 +1724,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1779,7 +1782,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60.754000000000005</v>
+        <v>60.379000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3036,11 +3039,15 @@
       <c r="A69" s="40">
         <v>44712</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>0.375</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4024,17 +4031,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4102,14 +4109,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4120,14 +4127,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4140,14 +4147,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4173,18 +4180,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5848,16 +5855,14 @@
       <c r="B3" s="11">
         <v>21.75</v>
       </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.5</v>
+        <v>0.375</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/OCAMPO, MERLINDA.xlsx
+++ b/CASUAL/LA ONT/OCAMPO, MERLINDA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>UT(0-3-0)</t>
+  </si>
+  <si>
+    <t>UT(3-1-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1265,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1618,12 +1624,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K123"/>
+  <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1788,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60.379000000000005</v>
+        <v>57.221000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3137,11 +3143,15 @@
       <c r="A73" s="40">
         <v>44805</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -3218,12 +3228,14 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="20"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>3.1520000000000001</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -3236,19 +3248,17 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44957</v>
+      <c r="A78" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -3257,7 +3267,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -3277,7 +3287,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -3297,7 +3307,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3317,11 +3327,9 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
@@ -3339,9 +3347,11 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B83" s="20"/>
+        <v>45077</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
@@ -3359,7 +3369,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3379,7 +3389,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -3399,7 +3409,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -3419,7 +3429,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -3439,7 +3449,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -3459,16 +3469,18 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -3476,8 +3488,8 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
-        <v>91</v>
+      <c r="A90" s="40">
+        <v>45291</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3494,8 +3506,8 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45322</v>
+      <c r="A91" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3513,7 +3525,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3531,7 +3543,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3549,7 +3561,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3566,7 +3578,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45412</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4014,20 +4028,36 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="43"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="43"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="15"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="41"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="43"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5856,13 +5886,13 @@
         <v>21.75</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.375</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
